--- a/biology/Botanique/Butia/Butia.xlsx
+++ b/biology/Botanique/Butia/Butia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butia Becc. (1916), est un genre de palmiers de la famille des Arecaceae. Son nom scientifique est dérivé de l'une des appellations qu'on lui donne en Amérique du Sud.
 </t>
@@ -511,11 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Cocoeae
-Sous-tribu des Attaleinae[2]
+Sous-tribu des Attaleinae
 Le genre Butia partage sa sous-tribu Attaleinae, avec 9 autres genres; 
 Beccariophoenix,  Jubaeopsis, Voanioala,  Allagoptera,  Cocos,  Jubaea,  Syagrus, Parajubaea et Attalea.
 </t>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces du genre Butia sont des palmiers à feuilles pennées, dotés d'une couronne bleutée qui est composée de feuilles arquées. Elles sont disposées irrégulièrement le long de la côte médiane, sortant partiellement par deux ou trois.
 Leur stipe est robuste, de couleur grise, et recouvert par des bases foliaires très coriaces. Le stipe reste longtemps enveloppé dans les bases foliaires des feuilles fanées, qui les marquent de cicatrices foliaires annelées.
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Butia a un habitat assez localisé. Il est typique de la pampa sud-américaine. On retrouve les neuf espèces à l'est du Paraguay, au sud du Brésil, au nord de l'Uruguay, et au nord-est de l’Argentine. Certaines des espèces sont aujourd'hui menacées d'extinction car les zones herbeuses sur lesquelles elles poussent sont destinées à l'agriculture intensive et transformées en champs de céréales.
 Le genre comprend des espèces assez résistantes au froid. Certaines espèces résistent à des températures de -10 à -12 °C. Il est donc assez fréquemment planté en dehors de son habitat naturel, notamment dans les jardins d'Europe. On trouve ainsi deux spécimens dans le jardin botanique de La Rochelle.
@@ -610,7 +628,9 @@
           <t>Résistance au froid de quelques espèces du genre Butia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les chiffres sont donnés à titre indicatif. Ils donnent la résistance maximale au froid dans de bonnes conditions : froid bref et air sec, plante adulte.
 Butia archeri (-10 °C)
@@ -644,9 +664,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (3 décembre 2020)[1], le genre comporte les espèces suivantes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (3 décembre 2020), le genre comporte les espèces suivantes :
 Butia archeri (Glassman) Glassman
 Butia arenicola (Barb.Rodr.) Burret
 Butia campicola (Barb.Rodr.) Noblick
